--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lama1-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lama1-Itga2.xlsx
@@ -534,10 +534,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.09358433333333334</v>
+        <v>0.01135533333333333</v>
       </c>
       <c r="H2">
-        <v>0.280753</v>
+        <v>0.034066</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.242496666666667</v>
+        <v>0.2615913333333333</v>
       </c>
       <c r="N2">
-        <v>3.72749</v>
+        <v>0.784774</v>
       </c>
       <c r="O2">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481725</v>
       </c>
       <c r="P2">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481727</v>
       </c>
       <c r="Q2">
-        <v>0.1162782222188889</v>
+        <v>0.002970456787111111</v>
       </c>
       <c r="R2">
-        <v>1.04650399997</v>
+        <v>0.026734111084</v>
       </c>
       <c r="S2">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481725</v>
       </c>
       <c r="T2">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481727</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,10 +596,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.09358433333333334</v>
+        <v>0.01135533333333333</v>
       </c>
       <c r="H3">
-        <v>0.280753</v>
+        <v>0.034066</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -617,25 +617,25 @@
         <v>1.744414</v>
       </c>
       <c r="N3">
-        <v>5.233242</v>
+        <v>5.233242000000001</v>
       </c>
       <c r="O3">
-        <v>0.4594087306446919</v>
+        <v>0.5494561706387266</v>
       </c>
       <c r="P3">
-        <v>0.4594087306446918</v>
+        <v>0.5494561706387268</v>
       </c>
       <c r="Q3">
-        <v>0.1632498212473333</v>
+        <v>0.01980840244133333</v>
       </c>
       <c r="R3">
-        <v>1.469248391226</v>
+        <v>0.178275621972</v>
       </c>
       <c r="S3">
-        <v>0.4594087306446919</v>
+        <v>0.5494561706387266</v>
       </c>
       <c r="T3">
-        <v>0.4594087306446918</v>
+        <v>0.5494561706387268</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,10 +658,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.09358433333333334</v>
+        <v>0.01135533333333333</v>
       </c>
       <c r="H4">
-        <v>0.280753</v>
+        <v>0.034066</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8101743333333333</v>
+        <v>1.168795666666667</v>
       </c>
       <c r="N4">
-        <v>2.430523</v>
+        <v>3.506387</v>
       </c>
       <c r="O4">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="P4">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="Q4">
-        <v>0.07581962486877779</v>
+        <v>0.01327206439355556</v>
       </c>
       <c r="R4">
-        <v>0.6823766238190001</v>
+        <v>0.119448579542</v>
       </c>
       <c r="S4">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="T4">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
     </row>
   </sheetData>
